--- a/pa1/runtime_weights.xlsx
+++ b/pa1/runtime_weights.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="885" yWindow="90" windowWidth="25605" windowHeight="17415" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="data" localSheetId="0">Sheet1!$A$1:$D$53</definedName>
+    <definedName name="data" localSheetId="0">Sheet1!$A$1:$B$55</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="data.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:aidandaly:cs124:cs124:cs124:pa1:data.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:aidandaly:cs124:cs124:cs124:pa1:data.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,13 +46,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,17 +76,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -125,56 +145,50 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>0D</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$44:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65356.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -186,40 +200,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.948888</c:v>
+                  <c:v>0.98996700000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.036754</c:v>
+                  <c:v>1.112601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.296636</c:v>
+                  <c:v>1.178266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.215238</c:v>
+                  <c:v>1.3308759999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.135111</c:v>
+                  <c:v>1.199811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.214666</c:v>
+                  <c:v>1.1759059999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.21517</c:v>
+                  <c:v>1.202904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.227904</c:v>
+                  <c:v>1.1939230000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.194682</c:v>
+                  <c:v>1.199303</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.198847</c:v>
+                  <c:v>1.19713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.202531</c:v>
+                  <c:v>1.203603</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.204062</c:v>
+                  <c:v>1.2021599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -229,101 +243,95 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>2D</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$44:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65356.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$25</c:f>
+              <c:f>Sheet1!$C$15:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.597301</c:v>
+                  <c:v>2.6142189999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.900528</c:v>
+                  <c:v>3.9208530000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.624165</c:v>
+                  <c:v>5.4399170000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.716419</c:v>
+                  <c:v>7.4549329999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.745855</c:v>
+                  <c:v>10.591843000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.941504</c:v>
+                  <c:v>14.943216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.102017</c:v>
+                  <c:v>20.888729999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.640996</c:v>
+                  <c:v>41.573003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.64685</c:v>
+                  <c:v>41.707788000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.833377</c:v>
+                  <c:v>58.893669000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.177407</c:v>
+                  <c:v>83.415145999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117.433378</c:v>
+                  <c:v>117.378755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,104 +341,95 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>3D</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$44:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65356.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$C$39</c:f>
+              <c:f>Sheet1!$C$29:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.498442</c:v>
+                  <c:v>4.6209369999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.42313</c:v>
+                  <c:v>7.0145739999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.304088</c:v>
+                  <c:v>11.163415000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.956906</c:v>
+                  <c:v>17.744405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.354302</c:v>
+                  <c:v>27.548594999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.072741</c:v>
+                  <c:v>43.167509000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.95914</c:v>
+                  <c:v>67.914394999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107.169953</c:v>
+                  <c:v>106.82559999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.852775</c:v>
+                  <c:v>169.495394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>267.596398</c:v>
+                  <c:v>267.09210300000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>422.768299</c:v>
+                  <c:v>422.68649099999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>667.340311</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1057.105299</c:v>
+                  <c:v>667.42613400000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,101 +439,95 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>4D</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$44:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65356.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$42:$C$53</c:f>
+              <c:f>Sheet1!$C$44:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.511538</c:v>
+                  <c:v>6.1548040000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.945813</c:v>
+                  <c:v>10.109425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.836312</c:v>
+                  <c:v>16.806941999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.626003</c:v>
+                  <c:v>28.324338999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.019644</c:v>
+                  <c:v>47.191631999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.775482</c:v>
+                  <c:v>78.616079999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130.100734</c:v>
+                  <c:v>129.904617</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>216.422496</c:v>
+                  <c:v>217.33430300000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>361.064998</c:v>
+                  <c:v>360.76585899999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>603.389113</c:v>
+                  <c:v>603.20189200000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1009.148736</c:v>
+                  <c:v>1010.222384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1684.834053</c:v>
+                  <c:v>1683.683395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,11 +544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="664469144"/>
-        <c:axId val="664455720"/>
+        <c:axId val="34584576"/>
+        <c:axId val="123671040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="664469144"/>
+        <c:axId val="34584576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664455720"/>
+        <c:crossAx val="123671040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -597,7 +590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664455720"/>
+        <c:axId val="123671040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664469144"/>
+        <c:crossAx val="34584576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -647,7 +640,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -700,56 +693,50 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>0D</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$29:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65356.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,40 +748,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>12.6</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.2</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>74.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>242.4</c:v>
+                  <c:v>232.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>823.0</c:v>
+                  <c:v>849.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2796.6</c:v>
+                  <c:v>2795.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9792.799999999999</c:v>
+                  <c:v>10612.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35896.2</c:v>
+                  <c:v>37958.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>146167.6</c:v>
+                  <c:v>153849.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>577603.0</c:v>
+                  <c:v>553097</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.58424E6</c:v>
+                  <c:v>2016570.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.1161482E6</c:v>
+                  <c:v>7341601.2000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,101 +791,95 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>2D</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$29:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65356.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$D$25</c:f>
+              <c:f>Sheet1!$D$15:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.8</c:v>
+                  <c:v>36.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.8</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>296.6</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1096.8</c:v>
+                  <c:v>1079.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4251.4</c:v>
+                  <c:v>4090.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14629.6</c:v>
+                  <c:v>14505.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>255315.6</c:v>
+                  <c:v>241721.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>259972.4</c:v>
+                  <c:v>291522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2464428E6</c:v>
+                  <c:v>961177</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.831402E6</c:v>
+                  <c:v>3849085.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.95463472E7</c:v>
+                  <c:v>14527892.199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,104 +889,95 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>3D</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$29:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65356.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$27:$D$39</c:f>
+              <c:f>Sheet1!$D$29:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>21.8</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.0</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>338.6</c:v>
+                  <c:v>317.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1125.2</c:v>
+                  <c:v>1048.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3904.2</c:v>
+                  <c:v>3536.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13256.6</c:v>
+                  <c:v>12172.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53293.6</c:v>
+                  <c:v>46761.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>205004.2</c:v>
+                  <c:v>199629.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>908824.8</c:v>
+                  <c:v>787417.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2510266E6</c:v>
+                  <c:v>2676545</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.21000454E7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.84154606E7</c:v>
+                  <c:v>9854889.4000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,101 +987,95 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>4D</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$29:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512.0</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048.0</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096.0</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192.0</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16384.0</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32678.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65356.0</c:v>
+                  <c:v>32678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$42:$D$53</c:f>
+              <c:f>Sheet1!$D$44:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>23.4</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.6</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.4</c:v>
+                  <c:v>112.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>405.4</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1236.4</c:v>
+                  <c:v>991.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4140.6</c:v>
+                  <c:v>3298.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15965.6</c:v>
+                  <c:v>10668.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59766.8</c:v>
+                  <c:v>36805</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>194842.6</c:v>
+                  <c:v>146406.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>718154.8</c:v>
+                  <c:v>533070</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.631029E6</c:v>
+                  <c:v>1931516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9877154E6</c:v>
+                  <c:v>7216841.7999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,11 +1092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="726412296"/>
-        <c:axId val="725946264"/>
+        <c:axId val="149852160"/>
+        <c:axId val="123673344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="726412296"/>
+        <c:axId val="149852160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="725946264"/>
+        <c:crossAx val="123673344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1167,7 +1133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="725946264"/>
+        <c:axId val="123673344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="726412296"/>
+        <c:crossAx val="149852160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1213,7 +1179,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1223,16 +1189,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1253,16 +1219,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1610,20 +1576,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1631,13 +1598,21 @@
         <v>16</v>
       </c>
       <c r="C1">
-        <v>0.94888799999999995</v>
+        <v>0.98996700000000004</v>
       </c>
       <c r="D1">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12.2</v>
+      </c>
+      <c r="E1" s="1">
+        <f>D1/1000000</f>
+        <v>1.22E-5</v>
+      </c>
+      <c r="G1">
+        <f>B1/(B1^(1/(1+A1)))/1.5</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1645,13 +1620,21 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>1.036754</v>
+        <v>1.112601</v>
       </c>
       <c r="D2">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>30.6</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E13" si="0">D2/1000000</f>
+        <v>3.0599999999999998E-5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G13" si="1">B2/(B2^(1/(1+A2)))/1.5</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1659,13 +1642,21 @@
         <v>64</v>
       </c>
       <c r="C3">
-        <v>1.2966359999999999</v>
+        <v>1.178266</v>
       </c>
       <c r="D3">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000002E-5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1673,13 +1664,21 @@
         <v>128</v>
       </c>
       <c r="C4">
-        <v>1.215238</v>
+        <v>1.3308759999999999</v>
       </c>
       <c r="D4">
-        <v>242.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>232.2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3219999999999998E-4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1687,13 +1686,21 @@
         <v>256</v>
       </c>
       <c r="C5">
-        <v>1.135111</v>
+        <v>1.199811</v>
       </c>
       <c r="D5">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>849.2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4920000000000004E-4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1701,13 +1708,21 @@
         <v>512</v>
       </c>
       <c r="C6">
-        <v>1.214666</v>
+        <v>1.1759059999999999</v>
       </c>
       <c r="D6">
-        <v>2796.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2795.8</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7958000000000002E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1715,13 +1730,21 @@
         <v>1024</v>
       </c>
       <c r="C7">
-        <v>1.2151700000000001</v>
+        <v>1.202904</v>
       </c>
       <c r="D7">
-        <v>9792.7999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>10612.8</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0612799999999999E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1729,13 +1752,21 @@
         <v>2048</v>
       </c>
       <c r="C8">
-        <v>1.2279040000000001</v>
+        <v>1.1939230000000001</v>
       </c>
       <c r="D8">
-        <v>35896.199999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>37958.6</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7958599999999995E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1743,13 +1774,21 @@
         <v>4096</v>
       </c>
       <c r="C9">
-        <v>1.194682</v>
+        <v>1.199303</v>
       </c>
       <c r="D9">
-        <v>146167.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>153849.60000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1538496</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1757,13 +1796,21 @@
         <v>8192</v>
       </c>
       <c r="C10">
-        <v>1.198847</v>
+        <v>1.19713</v>
       </c>
       <c r="D10">
-        <v>577603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>553097</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55309699999999995</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1771,13 +1818,21 @@
         <v>16384</v>
       </c>
       <c r="C11">
-        <v>1.202531</v>
+        <v>1.203603</v>
       </c>
       <c r="D11">
-        <v>2584240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2016570.4</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0165704</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1785,542 +1840,969 @@
         <v>32678</v>
       </c>
       <c r="C12">
-        <v>1.204062</v>
+        <v>1.2021599999999999</v>
       </c>
       <c r="D12">
-        <v>9116148.1999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2.5973009999999999</v>
-      </c>
-      <c r="D14">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>7341601.2000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3416012000000004</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>2*B12</f>
+        <v>65356</v>
+      </c>
+      <c r="C13">
+        <v>1.2020109999999999</v>
+      </c>
+      <c r="D13">
+        <v>82073465.666666999</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>82.073465666667005</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>3.900528</v>
+        <v>2.6142189999999998</v>
       </c>
       <c r="D15">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15/1000000</f>
+        <v>1.7E-5</v>
+      </c>
+      <c r="G15">
+        <f>B15/(B15^(1/A15))/1.5</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>5.6241649999999996</v>
+        <v>3.9208530000000001</v>
       </c>
       <c r="D16">
-        <v>103.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16/1000000</f>
+        <v>3.68E-5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G27" si="2">B16/(B16^(1/A16))/1.5</f>
+        <v>3.771236166328253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C17">
-        <v>7.7164190000000001</v>
+        <v>5.4399170000000003</v>
       </c>
       <c r="D17">
-        <v>296.60000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>102.6</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D17/1000000</f>
+        <v>1.026E-4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C18">
-        <v>10.745855000000001</v>
+        <v>7.4549329999999996</v>
       </c>
       <c r="D18">
-        <v>1096.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>316.39999999999998</v>
+      </c>
+      <c r="E18" s="1">
+        <f>D18/1000000</f>
+        <v>3.1639999999999999E-4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>7.542472332656506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C19">
-        <v>14.941504</v>
+        <v>10.591843000000001</v>
       </c>
       <c r="D19">
-        <v>4251.3999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>1079.5999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19/1000000</f>
+        <v>1.0796E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="C20">
-        <v>21.102017</v>
+        <v>14.943216</v>
       </c>
       <c r="D20">
-        <v>14629.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>4090.6</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20/1000000</f>
+        <v>4.0905999999999998E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>15.084944665313012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>4048</v>
+        <v>1024</v>
       </c>
       <c r="C21">
-        <v>41.640996000000001</v>
+        <v>20.888729999999999</v>
       </c>
       <c r="D21">
-        <v>255315.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>14505.4</v>
+      </c>
+      <c r="E21" s="1">
+        <f>D21/1000000</f>
+        <v>1.45054E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>21.333333333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>4096</v>
+        <v>4048</v>
       </c>
       <c r="C22">
-        <v>41.646850000000001</v>
+        <v>41.573003</v>
       </c>
       <c r="D22">
-        <v>259972.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>241721.2</v>
+      </c>
+      <c r="E22" s="1">
+        <f>D22/1000000</f>
+        <v>0.24172120000000002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>42.415929921564974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="C23">
-        <v>58.833376999999999</v>
+        <v>41.707788000000001</v>
       </c>
       <c r="D23">
-        <v>1246442.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>291522</v>
+      </c>
+      <c r="E23" s="1">
+        <f>D23/1000000</f>
+        <v>0.291522</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="C24">
-        <v>83.177407000000002</v>
+        <v>58.893669000000003</v>
       </c>
       <c r="D24">
-        <v>4831402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>961177</v>
+      </c>
+      <c r="E24" s="1">
+        <f>D24/1000000</f>
+        <v>0.96117699999999995</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>60.339778661252048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
+        <v>16384</v>
+      </c>
+      <c r="C25">
+        <v>83.415145999999993</v>
+      </c>
+      <c r="D25">
+        <v>3849085.2</v>
+      </c>
+      <c r="E25" s="1">
+        <f>D25/1000000</f>
+        <v>3.8490852000000002</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>85.333333333333329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
         <v>32678</v>
       </c>
-      <c r="C25">
-        <v>117.433378</v>
-      </c>
-      <c r="D25">
-        <v>19546347.199999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="C26">
+        <v>117.378755</v>
+      </c>
+      <c r="D26">
+        <v>14527892.199999999</v>
+      </c>
+      <c r="E26" s="1">
+        <f>D26/1000000</f>
+        <v>14.527892199999998</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>120.51371521762805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <f>B26*2</f>
+        <v>65356</v>
       </c>
       <c r="C27">
-        <v>4.4984419999999998</v>
+        <v>165.92592400000001</v>
       </c>
       <c r="D27">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>7.4231299999999996</v>
-      </c>
-      <c r="D28">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>63067939</v>
+      </c>
+      <c r="E27" s="1">
+        <f>D27/1000000</f>
+        <v>63.067939000000003</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>170.43213051273844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>11.304088</v>
+        <v>4.6209369999999996</v>
       </c>
       <c r="D29">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29/1000000</f>
+        <v>1.66E-5</v>
+      </c>
+      <c r="G29">
+        <f>B29/(B29^(1/A29))/1.5</f>
+        <v>4.2330694719151998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>17.956906</v>
+        <v>7.0145739999999996</v>
       </c>
       <c r="D30">
-        <v>338.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>41.8</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30/1000000</f>
+        <v>4.18E-5</v>
+      </c>
+      <c r="G30">
+        <f>B30/(B30^(1/A30))/1.5</f>
+        <v>6.7195789327726567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C31">
-        <v>27.354302000000001</v>
+        <v>11.163415000000001</v>
       </c>
       <c r="D31">
-        <v>1125.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1">
+        <f>D31/1000000</f>
+        <v>1.13E-4</v>
+      </c>
+      <c r="G31">
+        <f>B31/(B31^(1/A31))/1.5</f>
+        <v>10.66666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="C32">
-        <v>43.072741000000001</v>
+        <v>17.744405</v>
       </c>
       <c r="D32">
-        <v>3904.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>317.8</v>
+      </c>
+      <c r="E32" s="1">
+        <f>D32/1000000</f>
+        <v>3.1780000000000003E-4</v>
+      </c>
+      <c r="G32">
+        <f>B32/(B32^(1/A32))/1.5</f>
+        <v>16.932277887660799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="C33">
-        <v>67.959140000000005</v>
+        <v>27.548594999999999</v>
       </c>
       <c r="D33">
-        <v>13256.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1048.8</v>
+      </c>
+      <c r="E33" s="1">
+        <f>D33/1000000</f>
+        <v>1.0487999999999999E-3</v>
+      </c>
+      <c r="G33">
+        <f>B33/(B33^(1/A33))/1.5</f>
+        <v>26.878315731090627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="C34">
-        <v>107.16995300000001</v>
+        <v>43.167509000000003</v>
       </c>
       <c r="D34">
-        <v>53293.599999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>3536.8</v>
+      </c>
+      <c r="E34" s="1">
+        <f>D34/1000000</f>
+        <v>3.5368000000000001E-3</v>
+      </c>
+      <c r="G34">
+        <f>B34/(B34^(1/A34))/1.5</f>
+        <v>42.666666666666679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35">
-        <v>4096</v>
+        <v>1024</v>
       </c>
       <c r="C35">
-        <v>168.85277500000001</v>
+        <v>67.914394999999999</v>
       </c>
       <c r="D35">
-        <v>205004.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>12172.4</v>
+      </c>
+      <c r="E35" s="1">
+        <f>D35/1000000</f>
+        <v>1.21724E-2</v>
+      </c>
+      <c r="G35">
+        <f>B35/(B35^(1/A35))/1.5</f>
+        <v>67.729111550643168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="C36">
-        <v>267.59639800000002</v>
+        <v>106.82559999999999</v>
       </c>
       <c r="D36">
-        <v>908824.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>46761.4</v>
+      </c>
+      <c r="E36" s="1">
+        <f>D36/1000000</f>
+        <v>4.6761400000000002E-2</v>
+      </c>
+      <c r="G36">
+        <f>B36/(B36^(1/A36))/1.5</f>
+        <v>107.51326292436254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="C37">
-        <v>422.76829900000001</v>
+        <v>169.495394</v>
       </c>
       <c r="D37">
-        <v>3251026.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>199629.4</v>
+      </c>
+      <c r="E37" s="1">
+        <f>D37/1000000</f>
+        <v>0.19962939999999998</v>
+      </c>
+      <c r="G37">
+        <f>B37/(B37^(1/A37))/1.5</f>
+        <v>170.66666666666674</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38">
-        <v>32678</v>
+        <v>8192</v>
       </c>
       <c r="C38">
-        <v>667.34031100000004</v>
+        <v>267.09210300000001</v>
       </c>
       <c r="D38">
-        <v>12100045.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>787417.8</v>
+      </c>
+      <c r="E38" s="1">
+        <f>D38/1000000</f>
+        <v>0.78741780000000006</v>
+      </c>
+      <c r="G38">
+        <f>B38/(B38^(1/A38))/1.5</f>
+        <v>270.91644620257279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39">
-        <v>65356</v>
+        <v>16384</v>
       </c>
       <c r="C39">
-        <v>1057.1052990000001</v>
+        <v>422.68649099999999</v>
       </c>
       <c r="D39">
-        <v>58415460.600000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>2676545</v>
+      </c>
+      <c r="E39" s="1">
+        <f>D39/1000000</f>
+        <v>2.676545</v>
+      </c>
+      <c r="G39">
+        <f>B39/(B39^(1/A39))/1.5</f>
+        <v>430.05305169745014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40">
+        <v>32678</v>
+      </c>
+      <c r="C40">
+        <v>667.42613400000005</v>
+      </c>
+      <c r="D40">
+        <v>9854889.4000000004</v>
+      </c>
+      <c r="E40" s="1">
+        <f>D40/1000000</f>
+        <v>9.8548894000000011</v>
+      </c>
+      <c r="G40">
+        <f>B40/(B40^(1/A40))/1.5</f>
+        <v>681.41609376246367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>65356</v>
+      </c>
+      <c r="C41">
+        <v>1057.090013</v>
+      </c>
+      <c r="D41">
+        <v>39134330.200000003</v>
+      </c>
+      <c r="E41" s="1">
+        <f>D41/1000000</f>
+        <v>39.134330200000001</v>
+      </c>
+      <c r="G41">
+        <f>B41/(B41^(1/A41))/1.5</f>
+        <v>1081.6806240665958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
         <v>130712</v>
       </c>
-      <c r="C40">
-        <v>640.53311399999996</v>
-      </c>
-      <c r="D40">
-        <v>225866101.19999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>16</v>
-      </c>
       <c r="C42">
-        <v>6.5115379999999998</v>
+        <v>1674.326863</v>
       </c>
       <c r="D42">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>4</v>
-      </c>
-      <c r="B43">
-        <v>32</v>
-      </c>
-      <c r="C43">
-        <v>9.9458129999999993</v>
-      </c>
-      <c r="D43">
-        <v>65.599999999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>131060771.8</v>
+      </c>
+      <c r="E42" s="1">
+        <f>D42/1000000</f>
+        <v>131.0607718</v>
+      </c>
+      <c r="G42">
+        <f>B42/(B42^(1/A42))/1.5</f>
+        <v>1717.0609605369339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>16.836312</v>
+        <v>6.1548040000000004</v>
       </c>
       <c r="D44">
-        <v>157.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E44" s="1">
+        <f>D44/1000000</f>
+        <v>1.9600000000000002E-5</v>
+      </c>
+      <c r="G44">
+        <f>B44/(B44^(1/A44))/1.5</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>28.626003000000001</v>
+        <v>10.109425</v>
       </c>
       <c r="D45">
-        <v>405.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>47.4</v>
+      </c>
+      <c r="E45" s="1">
+        <f>D45/1000000</f>
+        <v>4.74E-5</v>
+      </c>
+      <c r="G45">
+        <f>B45/(B45^(1/A45))/1.5</f>
+        <v>8.9695617627062898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>47.019644</v>
+        <v>16.806941999999999</v>
       </c>
       <c r="D46">
-        <v>1236.4000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>112.4</v>
+      </c>
+      <c r="E46" s="1">
+        <f>D46/1000000</f>
+        <v>1.1240000000000001E-4</v>
+      </c>
+      <c r="G46">
+        <f>B46/(B46^(1/A46))/1.5</f>
+        <v>15.084944665313015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
       <c r="B47">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="C47">
-        <v>77.775481999999997</v>
+        <v>28.324338999999998</v>
       </c>
       <c r="D47">
-        <v>4140.6000000000004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>338</v>
+      </c>
+      <c r="E47" s="1">
+        <f>D47/1000000</f>
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="G47">
+        <f>B47/(B47^(1/A47))/1.5</f>
+        <v>25.369751786724716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
       <c r="B48">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="C48">
-        <v>130.10073399999999</v>
+        <v>47.191631999999998</v>
       </c>
       <c r="D48">
-        <v>15965.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>991.8</v>
+      </c>
+      <c r="E48" s="1">
+        <f>D48/1000000</f>
+        <v>9.9179999999999993E-4</v>
+      </c>
+      <c r="G48">
+        <f>B48/(B48^(1/A48))/1.5</f>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
       <c r="B49">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="C49">
-        <v>216.422496</v>
+        <v>78.616079999999997</v>
       </c>
       <c r="D49">
-        <v>59766.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>3298.2</v>
+      </c>
+      <c r="E49" s="1">
+        <f>D49/1000000</f>
+        <v>3.2981999999999998E-3</v>
+      </c>
+      <c r="G49">
+        <f>B49/(B49^(1/A49))/1.5</f>
+        <v>71.756494101650318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
       <c r="B50">
-        <v>4096</v>
+        <v>1024</v>
       </c>
       <c r="C50">
-        <v>361.064998</v>
+        <v>129.904617</v>
       </c>
       <c r="D50">
-        <v>194842.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>10668.8</v>
+      </c>
+      <c r="E50" s="1">
+        <f>D50/1000000</f>
+        <v>1.0668799999999999E-2</v>
+      </c>
+      <c r="G50">
+        <f>B50/(B50^(1/A50))/1.5</f>
+        <v>120.6795573225041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
       <c r="B51">
-        <v>8192</v>
+        <v>2048</v>
       </c>
       <c r="C51">
-        <v>603.38911299999995</v>
+        <v>217.33430300000001</v>
       </c>
       <c r="D51">
-        <v>718154.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>36805</v>
+      </c>
+      <c r="E51" s="1">
+        <f>D51/1000000</f>
+        <v>3.6804999999999997E-2</v>
+      </c>
+      <c r="G51">
+        <f>B51/(B51^(1/A51))/1.5</f>
+        <v>202.95801429379773</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
       <c r="B52">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="C52">
-        <v>1009.148736</v>
+        <v>360.76585899999998</v>
       </c>
       <c r="D52">
-        <v>2631029</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>146406.20000000001</v>
+      </c>
+      <c r="E52" s="1">
+        <f>D52/1000000</f>
+        <v>0.14640620000000001</v>
+      </c>
+      <c r="G52">
+        <f>B52/(B52^(1/A52))/1.5</f>
+        <v>341.33333333333343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
       <c r="B53">
+        <v>8192</v>
+      </c>
+      <c r="C53">
+        <v>603.20189200000004</v>
+      </c>
+      <c r="D53">
+        <v>533070</v>
+      </c>
+      <c r="E53" s="1">
+        <f>D53/1000000</f>
+        <v>0.53307000000000004</v>
+      </c>
+      <c r="G53">
+        <f>B53/(B53^(1/A53))/1.5</f>
+        <v>574.05195281320255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>16384</v>
+      </c>
+      <c r="C54">
+        <v>1010.222384</v>
+      </c>
+      <c r="D54">
+        <v>1931516</v>
+      </c>
+      <c r="E54" s="1">
+        <f>D54/1000000</f>
+        <v>1.931516</v>
+      </c>
+      <c r="G54">
+        <f>B54/(B54^(1/A54))/1.5</f>
+        <v>965.43645858003299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
         <v>32678</v>
       </c>
-      <c r="C53">
-        <v>1684.834053</v>
-      </c>
-      <c r="D53">
-        <v>9987715.4000000004</v>
+      <c r="C55">
+        <v>1683.683395</v>
+      </c>
+      <c r="D55">
+        <v>7216841.7999999998</v>
+      </c>
+      <c r="E55" s="1">
+        <f>D55/1000000</f>
+        <v>7.2168418000000001</v>
+      </c>
+      <c r="G55">
+        <f>B55/(B55^(1/A55))/1.5</f>
+        <v>1620.3183197305498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <f>B55*2</f>
+        <v>65356</v>
+      </c>
+      <c r="C56">
+        <v>2822.2191429999998</v>
+      </c>
+      <c r="D56">
+        <v>32587677.399999999</v>
+      </c>
+      <c r="E56" s="1">
+        <f>D56/1000000</f>
+        <v>32.587677399999997</v>
+      </c>
+      <c r="G56">
+        <f>B56/(B56^(1/A56))/1.5</f>
+        <v>2725.0397332626831</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <f>B56*2</f>
+        <v>130712</v>
+      </c>
+      <c r="C57">
+        <v>4730.6555470000003</v>
+      </c>
+      <c r="D57">
+        <v>116431188.333333</v>
+      </c>
+      <c r="E57" s="1">
+        <f>D57/1000000</f>
+        <v>116.431188333333</v>
+      </c>
+      <c r="G57">
+        <f>B57/(B57^(1/A57))/1.5</f>
+        <v>4582.9522862490585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <f>B57*2</f>
+        <v>261424</v>
+      </c>
+      <c r="C58">
+        <v>7937.6826970000002</v>
+      </c>
+      <c r="D58">
+        <v>545465774</v>
+      </c>
+      <c r="E58" s="1">
+        <f>D58/1000000</f>
+        <v>545.46577400000001</v>
+      </c>
+      <c r="G58">
+        <f>B58/(B58^(1/A58))/1.5</f>
+        <v>7707.5762975712969</v>
       </c>
     </row>
   </sheetData>

--- a/pa1/runtime_weights.xlsx
+++ b/pa1/runtime_weights.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="90" windowWidth="25605" windowHeight="17415" tabRatio="500"/>
+    <workbookView xWindow="885" yWindow="90" windowWidth="19515" windowHeight="8130" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="data" localSheetId="0">Sheet1!$A$1:$B$55</definedName>
@@ -36,9 +38,13 @@
 </connections>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,8 +59,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,6 +77,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -76,16 +94,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -145,6 +166,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Dimension 0</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -243,6 +267,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Dimension 2</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -341,6 +368,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Dimension 3</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -439,6 +469,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Dimension 4</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -544,11 +577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34584576"/>
-        <c:axId val="123671040"/>
+        <c:axId val="128133120"/>
+        <c:axId val="122491392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34584576"/>
+        <c:axId val="128133120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123671040"/>
+        <c:crossAx val="122491392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -590,7 +623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123671040"/>
+        <c:axId val="122491392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34584576"/>
+        <c:crossAx val="128133120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1092,11 +1125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149852160"/>
-        <c:axId val="123673344"/>
+        <c:axId val="39948288"/>
+        <c:axId val="122493696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149852160"/>
+        <c:axId val="39948288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123673344"/>
+        <c:crossAx val="122493696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1133,7 +1166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123673344"/>
+        <c:axId val="122493696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149852160"/>
+        <c:crossAx val="39948288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1189,16 +1222,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1219,16 +1252,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>301624</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>187324</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1576,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1587,10 +1620,10 @@
     <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1607,12 +1640,22 @@
         <f>D1/1000000</f>
         <v>1.22E-5</v>
       </c>
-      <c r="G1">
-        <f>B1/(B1^(1/(1+A1)))/1.5</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>6.2</v>
+      </c>
+      <c r="G1" s="2">
+        <f>F1/1000000</f>
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="H1">
+        <v>39</v>
+      </c>
+      <c r="K1" t="e">
+        <f>C1*LOG(A1,2)*0.0000000262468</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1629,12 +1672,22 @@
         <f t="shared" ref="E2:E13" si="0">D2/1000000</f>
         <v>3.0599999999999998E-5</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G13" si="1">B2/(B2^(1/(1+A2)))/1.5</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>16.8</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2/1000000</f>
+        <v>1.6800000000000002E-5</v>
+      </c>
+      <c r="H2">
+        <v>107</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K1:K11" si="1">H2*LOG(B2,2)*0.0000000262468</f>
+        <v>1.4042037999999999E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1651,12 +1704,22 @@
         <f t="shared" si="0"/>
         <v>7.4800000000000002E-5</v>
       </c>
-      <c r="G3">
+      <c r="F3">
+        <v>47.2</v>
+      </c>
+      <c r="G3" s="2">
+        <f>F3/1000000</f>
+        <v>4.7200000000000002E-5</v>
+      </c>
+      <c r="H3">
+        <v>323</v>
+      </c>
+      <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.0866298399999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1673,12 +1736,22 @@
         <f t="shared" si="0"/>
         <v>2.3219999999999998E-4</v>
       </c>
-      <c r="G4">
+      <c r="F4">
+        <v>130.6</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F4/1000000</f>
+        <v>1.306E-4</v>
+      </c>
+      <c r="H4">
+        <v>1016</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.866672416E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1695,12 +1768,22 @@
         <f t="shared" si="0"/>
         <v>8.4920000000000004E-4</v>
       </c>
-      <c r="G5">
+      <c r="F5">
+        <v>453</v>
+      </c>
+      <c r="G5" s="2">
+        <f>F5/1000000</f>
+        <v>4.5300000000000001E-4</v>
+      </c>
+      <c r="H5">
+        <v>3223</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.7674749119999995E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1717,12 +1800,22 @@
         <f t="shared" si="0"/>
         <v>2.7958000000000002E-3</v>
       </c>
-      <c r="G6">
+      <c r="F6">
+        <v>1584.4</v>
+      </c>
+      <c r="G6" s="2">
+        <f>F6/1000000</f>
+        <v>1.5844000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>10055</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.3752041659999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1739,12 +1832,22 @@
         <f t="shared" si="0"/>
         <v>1.0612799999999999E-2</v>
       </c>
-      <c r="G7">
+      <c r="F7">
+        <v>5319.4</v>
+      </c>
+      <c r="G7" s="2">
+        <f>F7/1000000</f>
+        <v>5.3193999999999993E-3</v>
+      </c>
+      <c r="H7">
+        <v>31595</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.2926764600000005E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1761,12 +1864,22 @@
         <f t="shared" si="0"/>
         <v>3.7958599999999995E-2</v>
       </c>
-      <c r="G8">
+      <c r="F8">
+        <v>19042.400000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <f>F8/1000000</f>
+        <v>1.9042400000000001E-2</v>
+      </c>
+      <c r="H8">
+        <v>96999</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.8005046885199999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1783,12 +1896,22 @@
         <f t="shared" si="0"/>
         <v>0.1538496</v>
       </c>
-      <c r="G9">
+      <c r="F9">
+        <v>74577.399999999994</v>
+      </c>
+      <c r="G9" s="2">
+        <f>F9/1000000</f>
+        <v>7.4577399999999988E-2</v>
+      </c>
+      <c r="H9">
+        <v>293764</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.2524379462399997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1805,12 +1928,22 @@
         <f t="shared" si="0"/>
         <v>0.55309699999999995</v>
       </c>
-      <c r="G10">
+      <c r="F10">
+        <v>232627.20000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <f>F10/1000000</f>
+        <v>0.23262720000000001</v>
+      </c>
+      <c r="H10">
+        <v>851237</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.29044921479079999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1827,12 +1960,22 @@
         <f t="shared" si="0"/>
         <v>2.0165704</v>
       </c>
-      <c r="G11">
+      <c r="F11">
+        <v>688805.4</v>
+      </c>
+      <c r="G11" s="2">
+        <f>F11/1000000</f>
+        <v>0.68880540000000001</v>
+      </c>
+      <c r="H11">
+        <v>2301431</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.84567278839119997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1849,12 +1992,22 @@
         <f t="shared" si="0"/>
         <v>7.3416012000000004</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>2107112.7999999998</v>
+      </c>
+      <c r="G12" s="2">
+        <f>F12/1000000</f>
+        <v>2.1071127999999999</v>
+      </c>
+      <c r="H12">
+        <v>5353458</v>
+      </c>
+      <c r="K12">
+        <f>H12*LOG(B12,2)*0.0000000262468</f>
+        <v>2.1071095828757449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1872,12 +2025,13 @@
         <f t="shared" si="0"/>
         <v>82.073465666667005</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1891,15 +2045,29 @@
         <v>17</v>
       </c>
       <c r="E15" s="1">
-        <f>D15/1000000</f>
+        <f t="shared" ref="E15:E27" si="2">D15/1000000</f>
         <v>1.7E-5</v>
       </c>
-      <c r="G15">
+      <c r="F15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G15" s="2">
+        <f>F15/1000000</f>
+        <v>8.8000000000000004E-6</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="I15">
         <f>B15/(B15^(1/A15))/1.5</f>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" ref="K13:K55" si="3">H15*LOG(B15,2)*0.0000000262468</f>
+        <v>5.8792831999999998E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1913,15 +2081,29 @@
         <v>36.799999999999997</v>
       </c>
       <c r="E16" s="1">
-        <f>D16/1000000</f>
+        <f t="shared" si="2"/>
         <v>3.68E-5</v>
       </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G27" si="2">B16/(B16^(1/A16))/1.5</f>
+      <c r="F16">
+        <v>23.2</v>
+      </c>
+      <c r="G16" s="2">
+        <f>F16/1000000</f>
+        <v>2.3199999999999998E-5</v>
+      </c>
+      <c r="H16">
+        <v>173</v>
+      </c>
+      <c r="I16">
+        <f>B16/(B16^(1/A16))/1.5</f>
         <v>3.771236166328253</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>2.2703481999999998E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1935,15 +2117,29 @@
         <v>102.6</v>
       </c>
       <c r="E17" s="1">
-        <f>D17/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.026E-4</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
+      <c r="F17">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="G17" s="2">
+        <f>F17/1000000</f>
+        <v>7.64E-5</v>
+      </c>
+      <c r="H17">
+        <v>514</v>
+      </c>
+      <c r="I17">
+        <f>B17/(B17^(1/A17))/1.5</f>
         <v>5.333333333333333</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>8.0945131199999993E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1957,15 +2153,29 @@
         <v>316.39999999999998</v>
       </c>
       <c r="E18" s="1">
-        <f>D18/1000000</f>
+        <f t="shared" si="2"/>
         <v>3.1639999999999999E-4</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
+      <c r="F18">
+        <v>224.2</v>
+      </c>
+      <c r="G18" s="2">
+        <f>F18/1000000</f>
+        <v>2.242E-4</v>
+      </c>
+      <c r="H18">
+        <v>1619</v>
+      </c>
+      <c r="I18">
+        <f>B18/(B18^(1/A18))/1.5</f>
         <v>7.542472332656506</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>2.9745498439999999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1979,15 +2189,29 @@
         <v>1079.5999999999999</v>
       </c>
       <c r="E19" s="1">
-        <f>D19/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.0796E-3</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
+      <c r="F19">
+        <v>743.8</v>
+      </c>
+      <c r="G19" s="2">
+        <f>F19/1000000</f>
+        <v>7.4379999999999997E-4</v>
+      </c>
+      <c r="H19">
+        <v>5014</v>
+      </c>
+      <c r="I19">
+        <f>B19/(B19^(1/A19))/1.5</f>
         <v>10.666666666666666</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>1.0528116416E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2001,15 +2225,29 @@
         <v>4090.6</v>
       </c>
       <c r="E20" s="1">
-        <f>D20/1000000</f>
+        <f t="shared" si="2"/>
         <v>4.0905999999999998E-3</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
+      <c r="F20">
+        <v>2829.8</v>
+      </c>
+      <c r="G20" s="2">
+        <f>F20/1000000</f>
+        <v>2.8298000000000004E-3</v>
+      </c>
+      <c r="H20">
+        <v>16530</v>
+      </c>
+      <c r="I20">
+        <f>B20/(B20^(1/A20))/1.5</f>
         <v>15.084944665313012</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>3.9047364359999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2023,15 +2261,29 @@
         <v>14505.4</v>
       </c>
       <c r="E21" s="1">
-        <f>D21/1000000</f>
+        <f t="shared" si="2"/>
         <v>1.45054E-2</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
+      <c r="F21">
+        <v>10198</v>
+      </c>
+      <c r="G21" s="2">
+        <f>F21/1000000</f>
+        <v>1.0198E-2</v>
+      </c>
+      <c r="H21">
+        <v>55576</v>
+      </c>
+      <c r="I21">
+        <f>B21/(B21^(1/A21))/1.5</f>
         <v>21.333333333333332</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>1.4586921567999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2045,15 +2297,29 @@
         <v>241721.2</v>
       </c>
       <c r="E22" s="1">
-        <f>D22/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.24172120000000002</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
+      <c r="F22">
+        <v>172993</v>
+      </c>
+      <c r="G22" s="2">
+        <f>F22/1000000</f>
+        <v>0.17299300000000001</v>
+      </c>
+      <c r="H22">
+        <v>615562</v>
+      </c>
+      <c r="I22">
+        <f>B22/(B22^(1/A22))/1.5</f>
         <v>42.415929921564974</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0.19360362755261129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2067,15 +2333,29 @@
         <v>291522</v>
       </c>
       <c r="E23" s="1">
-        <f>D23/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.291522</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
+      <c r="F23">
+        <v>175306.8</v>
+      </c>
+      <c r="G23" s="2">
+        <f>F23/1000000</f>
+        <v>0.17530679999999998</v>
+      </c>
+      <c r="H23">
+        <v>629938</v>
+      </c>
+      <c r="I23">
+        <f>B23/(B23^(1/A23))/1.5</f>
         <v>42.666666666666664</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.19840628038079999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2089,15 +2369,29 @@
         <v>961177</v>
       </c>
       <c r="E24" s="1">
-        <f>D24/1000000</f>
+        <f t="shared" si="2"/>
         <v>0.96117699999999995</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
+      <c r="F24">
+        <v>697515.4</v>
+      </c>
+      <c r="G24" s="2">
+        <f>F24/1000000</f>
+        <v>0.69751540000000001</v>
+      </c>
+      <c r="H24">
+        <v>2182371</v>
+      </c>
+      <c r="I24">
+        <f>B24/(B24^(1/A24))/1.5</f>
         <v>60.339778661252048</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0.74464331711639997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2111,15 +2405,29 @@
         <v>3849085.2</v>
       </c>
       <c r="E25" s="1">
-        <f>D25/1000000</f>
+        <f t="shared" si="2"/>
         <v>3.8490852000000002</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
+      <c r="F25">
+        <v>2563224.4</v>
+      </c>
+      <c r="G25" s="2">
+        <f>F25/1000000</f>
+        <v>2.5632243999999997</v>
+      </c>
+      <c r="H25">
+        <v>7596986</v>
+      </c>
+      <c r="I25">
+        <f>B25/(B25^(1/A25))/1.5</f>
         <v>85.333333333333329</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>2.7915520100271998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2133,15 +2441,29 @@
         <v>14527892.199999999</v>
       </c>
       <c r="E26" s="1">
-        <f>D26/1000000</f>
+        <f t="shared" si="2"/>
         <v>14.527892199999998</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
+      <c r="F26">
+        <v>10060614.6</v>
+      </c>
+      <c r="G26" s="2">
+        <f>F26/1000000</f>
+        <v>10.060614599999999</v>
+      </c>
+      <c r="H26">
+        <v>26549410</v>
+      </c>
+      <c r="I26">
+        <f>B26/(B26^(1/A26))/1.5</f>
         <v>120.51371521762805</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>10.449790813843524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2156,15 +2478,20 @@
         <v>63067939</v>
       </c>
       <c r="E27" s="1">
-        <f>D27/1000000</f>
+        <f t="shared" si="2"/>
         <v>63.067939000000003</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
+      <c r="G27" s="2"/>
+      <c r="I27">
+        <f>B27/(B27^(1/A27))/1.5</f>
         <v>170.43213051273844</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2178,15 +2505,29 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E29" s="1">
-        <f>D29/1000000</f>
+        <f t="shared" ref="E29:E42" si="4">D29/1000000</f>
         <v>1.66E-5</v>
       </c>
-      <c r="G29">
+      <c r="F29">
+        <v>10.6</v>
+      </c>
+      <c r="G29" s="2">
+        <f>F29/1000000</f>
+        <v>1.06E-5</v>
+      </c>
+      <c r="H29">
+        <v>77</v>
+      </c>
+      <c r="I29">
         <f>B29/(B29^(1/A29))/1.5</f>
         <v>4.2330694719151998</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>8.0840144000000006E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2200,15 +2541,29 @@
         <v>41.8</v>
       </c>
       <c r="E30" s="1">
-        <f>D30/1000000</f>
+        <f t="shared" si="4"/>
         <v>4.18E-5</v>
       </c>
-      <c r="G30">
+      <c r="F30">
+        <v>28.8</v>
+      </c>
+      <c r="G30" s="2">
+        <f>F30/1000000</f>
+        <v>2.8800000000000002E-5</v>
+      </c>
+      <c r="H30">
+        <v>207</v>
+      </c>
+      <c r="I30">
         <f>B30/(B30^(1/A30))/1.5</f>
         <v>6.7195789327726567</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>2.7165438E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2222,15 +2577,29 @@
         <v>113</v>
       </c>
       <c r="E31" s="1">
-        <f>D31/1000000</f>
+        <f t="shared" si="4"/>
         <v>1.13E-4</v>
       </c>
-      <c r="G31">
+      <c r="F31">
+        <v>71.8</v>
+      </c>
+      <c r="G31" s="2">
+        <f>F31/1000000</f>
+        <v>7.1799999999999997E-5</v>
+      </c>
+      <c r="H31">
+        <v>563</v>
+      </c>
+      <c r="I31">
         <f>B31/(B31^(1/A31))/1.5</f>
         <v>10.66666666666667</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>8.8661690399999998E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2244,15 +2613,29 @@
         <v>317.8</v>
       </c>
       <c r="E32" s="1">
-        <f>D32/1000000</f>
+        <f t="shared" si="4"/>
         <v>3.1780000000000003E-4</v>
       </c>
-      <c r="G32">
+      <c r="F32">
+        <v>220.6</v>
+      </c>
+      <c r="G32" s="2">
+        <f>F32/1000000</f>
+        <v>2.206E-4</v>
+      </c>
+      <c r="H32">
+        <v>1552</v>
+      </c>
+      <c r="I32">
         <f>B32/(B32^(1/A32))/1.5</f>
         <v>16.932277887660799</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>2.8514523519999999E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2266,15 +2649,29 @@
         <v>1048.8</v>
       </c>
       <c r="E33" s="1">
-        <f>D33/1000000</f>
+        <f t="shared" si="4"/>
         <v>1.0487999999999999E-3</v>
       </c>
-      <c r="G33">
+      <c r="F33">
+        <v>659.4</v>
+      </c>
+      <c r="G33" s="2">
+        <f>F33/1000000</f>
+        <v>6.5939999999999998E-4</v>
+      </c>
+      <c r="H33">
+        <v>4475</v>
+      </c>
+      <c r="I33">
         <f>B33/(B33^(1/A33))/1.5</f>
         <v>26.878315731090627</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>9.3963543999999995E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2288,15 +2685,29 @@
         <v>3536.8</v>
       </c>
       <c r="E34" s="1">
-        <f>D34/1000000</f>
+        <f t="shared" si="4"/>
         <v>3.5368000000000001E-3</v>
       </c>
-      <c r="G34">
+      <c r="F34">
+        <v>2264</v>
+      </c>
+      <c r="G34" s="2">
+        <f>F34/1000000</f>
+        <v>2.264E-3</v>
+      </c>
+      <c r="H34">
+        <v>13647</v>
+      </c>
+      <c r="I34">
         <f>B34/(B34^(1/A34))/1.5</f>
         <v>42.666666666666679</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>3.2237107163999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2310,15 +2721,29 @@
         <v>12172.4</v>
       </c>
       <c r="E35" s="1">
-        <f>D35/1000000</f>
+        <f t="shared" si="4"/>
         <v>1.21724E-2</v>
       </c>
-      <c r="G35">
+      <c r="F35">
+        <v>7484.2</v>
+      </c>
+      <c r="G35" s="2">
+        <f>F35/1000000</f>
+        <v>7.4841999999999999E-3</v>
+      </c>
+      <c r="H35">
+        <v>41047</v>
+      </c>
+      <c r="I35">
         <f>B35/(B35^(1/A35))/1.5</f>
         <v>67.729111550643168</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>1.0773523996E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2332,15 +2757,29 @@
         <v>46761.4</v>
       </c>
       <c r="E36" s="1">
-        <f>D36/1000000</f>
+        <f t="shared" si="4"/>
         <v>4.6761400000000002E-2</v>
       </c>
-      <c r="G36">
+      <c r="F36">
+        <v>26343.599999999999</v>
+      </c>
+      <c r="G36" s="2">
+        <f>F36/1000000</f>
+        <v>2.6343599999999998E-2</v>
+      </c>
+      <c r="H36">
+        <v>129867</v>
+      </c>
+      <c r="I36">
         <f>B36/(B36^(1/A36))/1.5</f>
         <v>107.51326292436254</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>3.74945249316E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2354,15 +2793,29 @@
         <v>199629.4</v>
       </c>
       <c r="E37" s="1">
-        <f>D37/1000000</f>
+        <f t="shared" si="4"/>
         <v>0.19962939999999998</v>
       </c>
-      <c r="G37">
+      <c r="F37">
+        <v>107416.4</v>
+      </c>
+      <c r="G37" s="2">
+        <f>F37/1000000</f>
+        <v>0.1074164</v>
+      </c>
+      <c r="H37">
+        <v>405929</v>
+      </c>
+      <c r="I37">
         <f>B37/(B37^(1/A37))/1.5</f>
         <v>170.66666666666674</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.12785204732639999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2376,15 +2829,29 @@
         <v>787417.8</v>
       </c>
       <c r="E38" s="1">
-        <f>D38/1000000</f>
+        <f t="shared" si="4"/>
         <v>0.78741780000000006</v>
       </c>
-      <c r="G38">
+      <c r="F38">
+        <v>406437.8</v>
+      </c>
+      <c r="G38" s="2">
+        <f>F38/1000000</f>
+        <v>0.40643780000000002</v>
+      </c>
+      <c r="H38">
+        <v>1309708</v>
+      </c>
+      <c r="I38">
         <f>B38/(B38^(1/A38))/1.5</f>
         <v>270.91644620257279</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.4468833711472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2398,15 +2865,29 @@
         <v>2676545</v>
       </c>
       <c r="E39" s="1">
-        <f>D39/1000000</f>
+        <f t="shared" si="4"/>
         <v>2.676545</v>
       </c>
-      <c r="G39">
+      <c r="F39">
+        <v>1526613.4</v>
+      </c>
+      <c r="G39" s="2">
+        <f>F39/1000000</f>
+        <v>1.5266134</v>
+      </c>
+      <c r="H39">
+        <v>4302869</v>
+      </c>
+      <c r="I39">
         <f>B39/(B39^(1/A39))/1.5</f>
         <v>430.05305169745014</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>1.5811115889687999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2420,15 +2901,29 @@
         <v>9854889.4000000004</v>
       </c>
       <c r="E40" s="1">
-        <f>D40/1000000</f>
+        <f t="shared" si="4"/>
         <v>9.8548894000000011</v>
       </c>
-      <c r="G40">
+      <c r="F40">
+        <v>5311422.2</v>
+      </c>
+      <c r="G40" s="2">
+        <f>F40/1000000</f>
+        <v>5.3114222</v>
+      </c>
+      <c r="H40">
+        <v>14170888</v>
+      </c>
+      <c r="I40">
         <f>B40/(B40^(1/A40))/1.5</f>
         <v>681.41609376246367</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>5.5776311129477243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2442,15 +2937,16 @@
         <v>39134330.200000003</v>
       </c>
       <c r="E41" s="1">
-        <f>D41/1000000</f>
+        <f t="shared" si="4"/>
         <v>39.134330200000001</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2"/>
+      <c r="I41">
         <f>B41/(B41^(1/A41))/1.5</f>
         <v>1081.6806240665958</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2464,15 +2960,20 @@
         <v>131060771.8</v>
       </c>
       <c r="E42" s="1">
-        <f>D42/1000000</f>
+        <f t="shared" si="4"/>
         <v>131.0607718</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2"/>
+      <c r="I42">
         <f>B42/(B42^(1/A42))/1.5</f>
         <v>1717.0609605369339</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2486,15 +2987,29 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E44" s="1">
-        <f>D44/1000000</f>
+        <f t="shared" ref="E44:E58" si="5">D44/1000000</f>
         <v>1.9600000000000002E-5</v>
       </c>
-      <c r="G44">
+      <c r="F44">
+        <v>11.4</v>
+      </c>
+      <c r="G44" s="2">
+        <f>F44/1000000</f>
+        <v>1.1400000000000001E-5</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
         <f>B44/(B44^(1/A44))/1.5</f>
         <v>5.333333333333333</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>1.049872E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2508,15 +3023,29 @@
         <v>47.4</v>
       </c>
       <c r="E45" s="1">
-        <f>D45/1000000</f>
+        <f t="shared" si="5"/>
         <v>4.74E-5</v>
       </c>
-      <c r="G45">
+      <c r="F45">
+        <v>28</v>
+      </c>
+      <c r="G45" s="2">
+        <f>F45/1000000</f>
+        <v>2.8E-5</v>
+      </c>
+      <c r="H45">
+        <v>260</v>
+      </c>
+      <c r="I45">
         <f>B45/(B45^(1/A45))/1.5</f>
         <v>8.9695617627062898</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>3.4120839999999996E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -2530,15 +3059,29 @@
         <v>112.4</v>
       </c>
       <c r="E46" s="1">
-        <f>D46/1000000</f>
+        <f t="shared" si="5"/>
         <v>1.1240000000000001E-4</v>
       </c>
-      <c r="G46">
+      <c r="F46">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G46" s="2">
+        <f>F46/1000000</f>
+        <v>7.9400000000000006E-5</v>
+      </c>
+      <c r="H46">
+        <v>647</v>
+      </c>
+      <c r="I46">
         <f>B46/(B46^(1/A46))/1.5</f>
         <v>15.084944665313015</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>1.018900776E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2552,15 +3095,29 @@
         <v>338</v>
       </c>
       <c r="E47" s="1">
-        <f>D47/1000000</f>
+        <f t="shared" si="5"/>
         <v>3.3799999999999998E-4</v>
       </c>
-      <c r="G47">
+      <c r="F47">
+        <v>233.8</v>
+      </c>
+      <c r="G47" s="2">
+        <f>F47/1000000</f>
+        <v>2.3380000000000002E-4</v>
+      </c>
+      <c r="H47">
+        <v>1749</v>
+      </c>
+      <c r="I47">
         <f>B47/(B47^(1/A47))/1.5</f>
         <v>25.369751786724716</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>3.2133957239999998E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -2574,15 +3131,29 @@
         <v>991.8</v>
       </c>
       <c r="E48" s="1">
-        <f>D48/1000000</f>
+        <f t="shared" si="5"/>
         <v>9.9179999999999993E-4</v>
       </c>
-      <c r="G48">
+      <c r="F48">
+        <v>678</v>
+      </c>
+      <c r="G48" s="2">
+        <f>F48/1000000</f>
+        <v>6.78E-4</v>
+      </c>
+      <c r="H48">
+        <v>4759</v>
+      </c>
+      <c r="I48">
         <f>B48/(B48^(1/A48))/1.5</f>
         <v>42.666666666666664</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>9.9926816960000005E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2596,15 +3167,29 @@
         <v>3298.2</v>
       </c>
       <c r="E49" s="1">
-        <f>D49/1000000</f>
+        <f t="shared" si="5"/>
         <v>3.2981999999999998E-3</v>
       </c>
-      <c r="G49">
+      <c r="F49">
+        <v>2150.1999999999998</v>
+      </c>
+      <c r="G49" s="2">
+        <f>F49/1000000</f>
+        <v>2.1501999999999997E-3</v>
+      </c>
+      <c r="H49">
+        <v>12815</v>
+      </c>
+      <c r="I49">
         <f>B49/(B49^(1/A49))/1.5</f>
         <v>71.756494101650318</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>3.027174678E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2618,15 +3203,29 @@
         <v>10668.8</v>
       </c>
       <c r="E50" s="1">
-        <f>D50/1000000</f>
+        <f t="shared" si="5"/>
         <v>1.0668799999999999E-2</v>
       </c>
-      <c r="G50">
+      <c r="F50">
+        <v>6511.2</v>
+      </c>
+      <c r="G50" s="2">
+        <f>F50/1000000</f>
+        <v>6.5112E-3</v>
+      </c>
+      <c r="H50">
+        <v>36146</v>
+      </c>
+      <c r="I50">
         <f>B50/(B50^(1/A50))/1.5</f>
         <v>120.6795573225041</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>9.4871683279999994E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2640,15 +3239,29 @@
         <v>36805</v>
       </c>
       <c r="E51" s="1">
-        <f>D51/1000000</f>
+        <f t="shared" si="5"/>
         <v>3.6804999999999997E-2</v>
       </c>
-      <c r="G51">
+      <c r="F51">
+        <v>21655.200000000001</v>
+      </c>
+      <c r="G51" s="2">
+        <f>F51/1000000</f>
+        <v>2.1655199999999999E-2</v>
+      </c>
+      <c r="H51">
+        <v>106117</v>
+      </c>
+      <c r="I51">
         <f>B51/(B51^(1/A51))/1.5</f>
         <v>202.95801429379773</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>3.0637548431599999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -2662,15 +3275,29 @@
         <v>146406.20000000001</v>
       </c>
       <c r="E52" s="1">
-        <f>D52/1000000</f>
+        <f t="shared" si="5"/>
         <v>0.14640620000000001</v>
       </c>
-      <c r="G52">
+      <c r="F52">
+        <v>80727.600000000006</v>
+      </c>
+      <c r="G52" s="2">
+        <f>F52/1000000</f>
+        <v>8.072760000000001E-2</v>
+      </c>
+      <c r="H52">
+        <v>312938</v>
+      </c>
+      <c r="I52">
         <f>B52/(B52^(1/A52))/1.5</f>
         <v>341.33333333333343</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>9.8563453180799995E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2684,15 +3311,29 @@
         <v>533070</v>
       </c>
       <c r="E53" s="1">
-        <f>D53/1000000</f>
+        <f t="shared" si="5"/>
         <v>0.53307000000000004</v>
       </c>
-      <c r="G53">
+      <c r="F53">
+        <v>259901.6</v>
+      </c>
+      <c r="G53" s="2">
+        <f>F53/1000000</f>
+        <v>0.25990160000000001</v>
+      </c>
+      <c r="H53">
+        <v>945328</v>
+      </c>
+      <c r="I53">
         <f>B53/(B53^(1/A53))/1.5</f>
         <v>574.05195281320255</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>0.32255385435520001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2706,15 +3347,29 @@
         <v>1931516</v>
       </c>
       <c r="E54" s="1">
-        <f>D54/1000000</f>
+        <f t="shared" si="5"/>
         <v>1.931516</v>
       </c>
-      <c r="G54">
+      <c r="F54">
+        <v>893846.2</v>
+      </c>
+      <c r="G54" s="2">
+        <f>F54/1000000</f>
+        <v>0.89384619999999992</v>
+      </c>
+      <c r="H54">
+        <v>2912150</v>
+      </c>
+      <c r="I54">
         <f>B54/(B54^(1/A54))/1.5</f>
         <v>965.43645858003299</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>1.0700846606799999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2728,15 +3383,29 @@
         <v>7216841.7999999998</v>
       </c>
       <c r="E55" s="1">
-        <f>D55/1000000</f>
+        <f t="shared" si="5"/>
         <v>7.2168418000000001</v>
       </c>
-      <c r="G55">
+      <c r="F55">
+        <v>3000166</v>
+      </c>
+      <c r="G55" s="2">
+        <f>F55/1000000</f>
+        <v>3.0001660000000001</v>
+      </c>
+      <c r="H55">
+        <v>9082067</v>
+      </c>
+      <c r="I55">
         <f>B55/(B55^(1/A55))/1.5</f>
         <v>1620.3183197305498</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>3.5746820854893353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2751,15 +3420,15 @@
         <v>32587677.399999999</v>
       </c>
       <c r="E56" s="1">
-        <f>D56/1000000</f>
+        <f t="shared" si="5"/>
         <v>32.587677399999997</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <f>B56/(B56^(1/A56))/1.5</f>
         <v>2725.0397332626831</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2774,15 +3443,15 @@
         <v>116431188.333333</v>
       </c>
       <c r="E57" s="1">
-        <f>D57/1000000</f>
+        <f t="shared" si="5"/>
         <v>116.431188333333</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <f>B57/(B57^(1/A57))/1.5</f>
         <v>4582.9522862490585</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2797,21 +3466,1601 @@
         <v>545465774</v>
       </c>
       <c r="E58" s="1">
-        <f>D58/1000000</f>
+        <f t="shared" si="5"/>
         <v>545.46577400000001</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <f>B58/(B58^(1/A58))/1.5</f>
         <v>7707.5762975712969</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>0.98996700000000004</v>
+      </c>
+      <c r="C1">
+        <v>2.6142189999999998</v>
+      </c>
+      <c r="D1">
+        <v>4.6209369999999996</v>
+      </c>
+      <c r="E1">
+        <v>6.1548040000000004</v>
+      </c>
+      <c r="K1" s="1">
+        <f>B18/1000000</f>
+        <v>1.22E-5</v>
+      </c>
+      <c r="L1" s="1">
+        <f>C19/1000000</f>
+        <v>1.7E-5</v>
+      </c>
+      <c r="M1" s="1">
+        <f>E19/1000000</f>
+        <v>1.66E-5</v>
+      </c>
+      <c r="N1" s="1">
+        <f>G19/1000000</f>
+        <v>1.9600000000000002E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1.112601</v>
+      </c>
+      <c r="C2">
+        <v>3.9208530000000001</v>
+      </c>
+      <c r="D2">
+        <v>7.0145739999999996</v>
+      </c>
+      <c r="E2">
+        <v>10.109425</v>
+      </c>
+      <c r="K2" s="1">
+        <f>B19/1000000</f>
+        <v>3.0599999999999998E-5</v>
+      </c>
+      <c r="L2" s="1">
+        <f>C20/1000000</f>
+        <v>3.68E-5</v>
+      </c>
+      <c r="M2" s="1">
+        <f>E20/1000000</f>
+        <v>4.18E-5</v>
+      </c>
+      <c r="N2" s="1">
+        <f>G20/1000000</f>
+        <v>4.74E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>1.178266</v>
+      </c>
+      <c r="C3">
+        <v>5.4399170000000003</v>
+      </c>
+      <c r="D3">
+        <v>11.163415000000001</v>
+      </c>
+      <c r="E3">
+        <v>16.806941999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <f>B20/1000000</f>
+        <v>7.4800000000000002E-5</v>
+      </c>
+      <c r="L3" s="1">
+        <f>C21/1000000</f>
+        <v>1.026E-4</v>
+      </c>
+      <c r="M3" s="1">
+        <f>E21/1000000</f>
+        <v>1.13E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <f>G21/1000000</f>
+        <v>1.1240000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>128</v>
+      </c>
+      <c r="B4">
+        <v>1.3308759999999999</v>
+      </c>
+      <c r="C4">
+        <v>7.4549329999999996</v>
+      </c>
+      <c r="D4">
+        <v>17.744405</v>
+      </c>
+      <c r="E4">
+        <v>28.324338999999998</v>
+      </c>
+      <c r="K4" s="1">
+        <f>B21/1000000</f>
+        <v>2.3219999999999998E-4</v>
+      </c>
+      <c r="L4" s="1">
+        <f>C22/1000000</f>
+        <v>3.1639999999999999E-4</v>
+      </c>
+      <c r="M4" s="1">
+        <f>E22/1000000</f>
+        <v>3.1780000000000003E-4</v>
+      </c>
+      <c r="N4" s="1">
+        <f>G22/1000000</f>
+        <v>3.3799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>1.199811</v>
+      </c>
+      <c r="C5">
+        <v>10.591843000000001</v>
+      </c>
+      <c r="D5">
+        <v>27.548594999999999</v>
+      </c>
+      <c r="E5">
+        <v>47.191631999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <f>B22/1000000</f>
+        <v>8.4920000000000004E-4</v>
+      </c>
+      <c r="L5" s="1">
+        <f>C23/1000000</f>
+        <v>1.0796E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <f>E23/1000000</f>
+        <v>1.0487999999999999E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <f>G23/1000000</f>
+        <v>9.9179999999999993E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>512</v>
+      </c>
+      <c r="B6">
+        <v>1.1759059999999999</v>
+      </c>
+      <c r="C6">
+        <v>14.943216</v>
+      </c>
+      <c r="D6">
+        <v>43.167509000000003</v>
+      </c>
+      <c r="E6">
+        <v>78.616079999999997</v>
+      </c>
+      <c r="K6" s="1">
+        <f>B23/1000000</f>
+        <v>2.7958000000000002E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <f>C24/1000000</f>
+        <v>4.0905999999999998E-3</v>
+      </c>
+      <c r="M6" s="1">
+        <f>E24/1000000</f>
+        <v>3.5368000000000001E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <f>G24/1000000</f>
+        <v>3.2981999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1024</v>
+      </c>
+      <c r="B7">
+        <v>1.202904</v>
+      </c>
+      <c r="C7">
+        <v>20.888729999999999</v>
+      </c>
+      <c r="D7">
+        <v>67.914394999999999</v>
+      </c>
+      <c r="E7">
+        <v>129.904617</v>
+      </c>
+      <c r="K7" s="1">
+        <f>B24/1000000</f>
+        <v>1.0612799999999999E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f>C25/1000000</f>
+        <v>1.45054E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f>E25/1000000</f>
+        <v>1.21724E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f>G25/1000000</f>
+        <v>1.0668799999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2048</v>
+      </c>
+      <c r="B8">
+        <v>1.1939230000000001</v>
+      </c>
+      <c r="C8">
+        <v>41.573003</v>
+      </c>
+      <c r="D8">
+        <v>106.82559999999999</v>
+      </c>
+      <c r="E8">
+        <v>217.33430300000001</v>
+      </c>
+      <c r="K8" s="1">
+        <f>B25/1000000</f>
+        <v>3.7958599999999995E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f>C26/1000000</f>
+        <v>0.24172120000000002</v>
+      </c>
+      <c r="M8" s="1">
+        <f>E26/1000000</f>
+        <v>4.6761400000000002E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f>G26/1000000</f>
+        <v>3.6804999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4096</v>
+      </c>
+      <c r="B9">
+        <v>1.199303</v>
+      </c>
+      <c r="C9">
+        <v>41.707788000000001</v>
+      </c>
+      <c r="D9">
+        <v>169.495394</v>
+      </c>
+      <c r="E9">
+        <v>360.76585899999998</v>
+      </c>
+      <c r="K9" s="1">
+        <f>B26/1000000</f>
+        <v>0.1538496</v>
+      </c>
+      <c r="L9" s="1">
+        <f>C27/1000000</f>
+        <v>0.291522</v>
+      </c>
+      <c r="M9" s="1">
+        <f>E27/1000000</f>
+        <v>0.19962939999999998</v>
+      </c>
+      <c r="N9" s="1">
+        <f>G27/1000000</f>
+        <v>0.14640620000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8192</v>
+      </c>
+      <c r="B10">
+        <v>1.19713</v>
+      </c>
+      <c r="C10">
+        <v>58.893669000000003</v>
+      </c>
+      <c r="D10">
+        <v>267.09210300000001</v>
+      </c>
+      <c r="E10">
+        <v>603.20189200000004</v>
+      </c>
+      <c r="K10" s="1">
+        <f>B27/1000000</f>
+        <v>0.55309699999999995</v>
+      </c>
+      <c r="L10" s="1">
+        <f>C28/1000000</f>
+        <v>0.96117699999999995</v>
+      </c>
+      <c r="M10" s="1">
+        <f>E28/1000000</f>
+        <v>0.78741780000000006</v>
+      </c>
+      <c r="N10" s="1">
+        <f>G28/1000000</f>
+        <v>0.53307000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16384</v>
+      </c>
+      <c r="B11">
+        <v>1.203603</v>
+      </c>
+      <c r="C11">
+        <v>83.415145999999993</v>
+      </c>
+      <c r="D11">
+        <v>422.68649099999999</v>
+      </c>
+      <c r="E11">
+        <v>1010.222384</v>
+      </c>
+      <c r="K11" s="1">
+        <f>B28/1000000</f>
+        <v>2.0165704</v>
+      </c>
+      <c r="L11" s="1">
+        <f>C29/1000000</f>
+        <v>3.8490852000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <f>E29/1000000</f>
+        <v>2.676545</v>
+      </c>
+      <c r="N11" s="1">
+        <f>G29/1000000</f>
+        <v>1.931516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>32678</v>
+      </c>
+      <c r="B12">
+        <v>1.2021599999999999</v>
+      </c>
+      <c r="C12">
+        <v>117.378755</v>
+      </c>
+      <c r="D12">
+        <v>667.42613400000005</v>
+      </c>
+      <c r="E12">
+        <v>1683.683395</v>
+      </c>
+      <c r="K12" s="1">
+        <f>B29/1000000</f>
+        <v>7.3416012000000004</v>
+      </c>
+      <c r="L12" s="1">
+        <f>C30/1000000</f>
+        <v>14.527892199999998</v>
+      </c>
+      <c r="M12" s="1">
+        <f>E30/1000000</f>
+        <v>9.8548894000000011</v>
+      </c>
+      <c r="N12" s="1">
+        <f>G30/1000000</f>
+        <v>7.2168418000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12*2</f>
+        <v>65356</v>
+      </c>
+      <c r="B13">
+        <v>1.2020109999999999</v>
+      </c>
+      <c r="C13">
+        <v>165.92592400000001</v>
+      </c>
+      <c r="D13">
+        <v>1057.090013</v>
+      </c>
+      <c r="E13">
+        <v>2822.2191429999998</v>
+      </c>
+      <c r="K13" s="1">
+        <f>B30/1000000</f>
+        <v>82.073465666667005</v>
+      </c>
+      <c r="L13" s="1">
+        <f>C31/1000000</f>
+        <v>63.067939000000003</v>
+      </c>
+      <c r="M13" s="1">
+        <f>E31/1000000</f>
+        <v>39.134330200000001</v>
+      </c>
+      <c r="N13" s="1">
+        <f>G31/1000000</f>
+        <v>32.587677399999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A13*2</f>
+        <v>130712</v>
+      </c>
+      <c r="D14">
+        <v>1674.326863</v>
+      </c>
+      <c r="E14">
+        <v>4730.6555470000003</v>
+      </c>
+      <c r="M14" s="1">
+        <f>E32/1000000</f>
+        <v>131.0607718</v>
+      </c>
+      <c r="N14" s="1">
+        <f>G32/1000000</f>
+        <v>116.431188333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A14*2</f>
+        <v>261424</v>
+      </c>
+      <c r="E15">
+        <v>7937.6826970000002</v>
+      </c>
+      <c r="N15" s="1">
+        <f>G33/1000000</f>
+        <v>545.46577400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>30.6</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G19">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>74.8</v>
+      </c>
+      <c r="C20">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E20">
+        <v>41.8</v>
+      </c>
+      <c r="G20">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>232.2</v>
+      </c>
+      <c r="C21">
+        <v>102.6</v>
+      </c>
+      <c r="E21">
+        <v>113</v>
+      </c>
+      <c r="G21">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>849.2</v>
+      </c>
+      <c r="C22">
+        <v>316.39999999999998</v>
+      </c>
+      <c r="E22">
+        <v>317.8</v>
+      </c>
+      <c r="G22">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2795.8</v>
+      </c>
+      <c r="C23">
+        <v>1079.5999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1048.8</v>
+      </c>
+      <c r="G23">
+        <v>991.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>10612.8</v>
+      </c>
+      <c r="C24">
+        <v>4090.6</v>
+      </c>
+      <c r="E24">
+        <v>3536.8</v>
+      </c>
+      <c r="G24">
+        <v>3298.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>37958.6</v>
+      </c>
+      <c r="C25">
+        <v>14505.4</v>
+      </c>
+      <c r="E25">
+        <v>12172.4</v>
+      </c>
+      <c r="G25">
+        <v>10668.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>153849.60000000001</v>
+      </c>
+      <c r="C26">
+        <v>241721.2</v>
+      </c>
+      <c r="E26">
+        <v>46761.4</v>
+      </c>
+      <c r="G26">
+        <v>36805</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>553097</v>
+      </c>
+      <c r="C27">
+        <v>291522</v>
+      </c>
+      <c r="E27">
+        <v>199629.4</v>
+      </c>
+      <c r="G27">
+        <v>146406.20000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2016570.4</v>
+      </c>
+      <c r="C28">
+        <v>961177</v>
+      </c>
+      <c r="E28">
+        <v>787417.8</v>
+      </c>
+      <c r="G28">
+        <v>533070</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>7341601.2000000002</v>
+      </c>
+      <c r="C29">
+        <v>3849085.2</v>
+      </c>
+      <c r="E29">
+        <v>2676545</v>
+      </c>
+      <c r="G29">
+        <v>1931516</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>82073465.666666999</v>
+      </c>
+      <c r="C30">
+        <v>14527892.199999999</v>
+      </c>
+      <c r="E30">
+        <v>9854889.4000000004</v>
+      </c>
+      <c r="G30">
+        <v>7216841.7999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>63067939</v>
+      </c>
+      <c r="E31">
+        <v>39134330.200000003</v>
+      </c>
+      <c r="G31">
+        <v>32587677.399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>131060771.8</v>
+      </c>
+      <c r="G32">
+        <v>116431188.333333</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>545465774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>A17/1000000</f>
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="C1">
+        <v>39</v>
+      </c>
+      <c r="D1">
+        <f>C1*LOG(A1,2)*0.0000000262468</f>
+        <v>4.0945007999999999E-6</v>
+      </c>
+      <c r="E1" s="2">
+        <f>A31/1000000</f>
+        <v>8.8000000000000004E-6</v>
+      </c>
+      <c r="F1">
+        <v>56</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:G11" si="0">F1*LOG(A1,2)*0.0000000262468</f>
+        <v>5.8792831999999998E-6</v>
+      </c>
+      <c r="H1">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2">
+        <f>A45/1000000</f>
+        <v>1.06E-5</v>
+      </c>
+      <c r="J1">
+        <v>77</v>
+      </c>
+      <c r="K1">
+        <f>J1*LOG(A1,2)*0.0000000262468</f>
+        <v>8.0840144000000006E-6</v>
+      </c>
+      <c r="L1" s="2">
+        <f>A60/1000000</f>
+        <v>1.1400000000000001E-5</v>
+      </c>
+      <c r="M1">
+        <v>100</v>
+      </c>
+      <c r="N1">
+        <f>M1*LOG(A1,2)*0.0000000262468</f>
+        <v>1.049872E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <f>A18/1000000</f>
+        <v>1.6800000000000002E-5</v>
+      </c>
+      <c r="C2">
+        <v>107</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D12" si="1">C2*LOG(A2,2)*0.0000000262468</f>
+        <v>1.4042037999999999E-5</v>
+      </c>
+      <c r="E2" s="2">
+        <f>A32/1000000</f>
+        <v>2.3199999999999998E-5</v>
+      </c>
+      <c r="F2">
+        <v>173</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2.2703481999999998E-5</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <f>A46/1000000</f>
+        <v>2.8800000000000002E-5</v>
+      </c>
+      <c r="J2">
+        <v>207</v>
+      </c>
+      <c r="K2">
+        <f>J2*LOG(A2,2)*0.0000000262468</f>
+        <v>2.7165438E-5</v>
+      </c>
+      <c r="L2" s="2">
+        <f>A61/1000000</f>
+        <v>2.8E-5</v>
+      </c>
+      <c r="M2">
+        <v>260</v>
+      </c>
+      <c r="N2">
+        <f>M2*LOG(A2,2)*0.0000000262468</f>
+        <v>3.4120839999999996E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2">
+        <f>A19/1000000</f>
+        <v>4.7200000000000002E-5</v>
+      </c>
+      <c r="C3">
+        <v>323</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>5.0866298399999999E-5</v>
+      </c>
+      <c r="E3" s="2">
+        <f>A33/1000000</f>
+        <v>7.64E-5</v>
+      </c>
+      <c r="F3">
+        <v>514</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>8.0945131199999993E-5</v>
+      </c>
+      <c r="H3">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2">
+        <f>A47/1000000</f>
+        <v>7.1799999999999997E-5</v>
+      </c>
+      <c r="J3">
+        <v>563</v>
+      </c>
+      <c r="K3">
+        <f>J3*LOG(A3,2)*0.0000000262468</f>
+        <v>8.8661690399999998E-5</v>
+      </c>
+      <c r="L3" s="2">
+        <f>A62/1000000</f>
+        <v>7.9400000000000006E-5</v>
+      </c>
+      <c r="M3">
+        <v>647</v>
+      </c>
+      <c r="N3">
+        <f>M3*LOG(A3,2)*0.0000000262468</f>
+        <v>1.018900776E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>128</v>
+      </c>
+      <c r="B4" s="2">
+        <f>A20/1000000</f>
+        <v>1.306E-4</v>
+      </c>
+      <c r="C4">
+        <v>1016</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1.866672416E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <f>A34/1000000</f>
+        <v>2.242E-4</v>
+      </c>
+      <c r="F4">
+        <v>1619</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2.9745498439999999E-4</v>
+      </c>
+      <c r="H4">
+        <v>128</v>
+      </c>
+      <c r="I4" s="2">
+        <f>A48/1000000</f>
+        <v>2.206E-4</v>
+      </c>
+      <c r="J4">
+        <v>1552</v>
+      </c>
+      <c r="K4">
+        <f>J4*LOG(A4,2)*0.0000000262468</f>
+        <v>2.8514523519999999E-4</v>
+      </c>
+      <c r="L4" s="2">
+        <f>A63/1000000</f>
+        <v>2.3380000000000002E-4</v>
+      </c>
+      <c r="M4">
+        <v>1749</v>
+      </c>
+      <c r="N4">
+        <f>M4*LOG(A4,2)*0.0000000262468</f>
+        <v>3.2133957239999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>256</v>
+      </c>
+      <c r="B5" s="2">
+        <f>A21/1000000</f>
+        <v>4.5300000000000001E-4</v>
+      </c>
+      <c r="C5">
+        <v>3223</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>6.7674749119999995E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <f>A35/1000000</f>
+        <v>7.4379999999999997E-4</v>
+      </c>
+      <c r="F5">
+        <v>5014</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.0528116416E-3</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5" s="2">
+        <f>A49/1000000</f>
+        <v>6.5939999999999998E-4</v>
+      </c>
+      <c r="J5">
+        <v>4475</v>
+      </c>
+      <c r="K5">
+        <f>J5*LOG(A5,2)*0.0000000262468</f>
+        <v>9.3963543999999995E-4</v>
+      </c>
+      <c r="L5" s="2">
+        <f>A64/1000000</f>
+        <v>6.78E-4</v>
+      </c>
+      <c r="M5">
+        <v>4759</v>
+      </c>
+      <c r="N5">
+        <f>M5*LOG(A5,2)*0.0000000262468</f>
+        <v>9.9926816960000005E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>512</v>
+      </c>
+      <c r="B6" s="2">
+        <f>A22/1000000</f>
+        <v>1.5844000000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>10055</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2.3752041659999999E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <f>A36/1000000</f>
+        <v>2.8298000000000004E-3</v>
+      </c>
+      <c r="F6">
+        <v>16530</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3.9047364359999998E-3</v>
+      </c>
+      <c r="H6">
+        <v>512</v>
+      </c>
+      <c r="I6" s="2">
+        <f>A50/1000000</f>
+        <v>2.264E-3</v>
+      </c>
+      <c r="J6">
+        <v>13647</v>
+      </c>
+      <c r="K6">
+        <f>J6*LOG(A6,2)*0.0000000262468</f>
+        <v>3.2237107163999999E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <f>A65/1000000</f>
+        <v>2.1501999999999997E-3</v>
+      </c>
+      <c r="M6">
+        <v>12815</v>
+      </c>
+      <c r="N6">
+        <f>M6*LOG(A6,2)*0.0000000262468</f>
+        <v>3.027174678E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1024</v>
+      </c>
+      <c r="B7" s="2">
+        <f>A23/1000000</f>
+        <v>5.3193999999999993E-3</v>
+      </c>
+      <c r="C7">
+        <v>31595</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>8.2926764600000005E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f>A37/1000000</f>
+        <v>1.0198E-2</v>
+      </c>
+      <c r="F7">
+        <v>55576</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.4586921567999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>1024</v>
+      </c>
+      <c r="I7" s="2">
+        <f>A51/1000000</f>
+        <v>7.4841999999999999E-3</v>
+      </c>
+      <c r="J7">
+        <v>41047</v>
+      </c>
+      <c r="K7">
+        <f>J7*LOG(A7,2)*0.0000000262468</f>
+        <v>1.0773523996E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f>A66/1000000</f>
+        <v>6.5112E-3</v>
+      </c>
+      <c r="M7">
+        <v>36146</v>
+      </c>
+      <c r="N7">
+        <f>M7*LOG(A7,2)*0.0000000262468</f>
+        <v>9.4871683279999994E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="2">
+        <f>A24/1000000</f>
+        <v>1.9042400000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>96999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2.8005046885199999E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <f>A38/1000000</f>
+        <v>0.17299300000000001</v>
+      </c>
+      <c r="F8">
+        <v>615562</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.17772185971759999</v>
+      </c>
+      <c r="H8">
+        <v>2048</v>
+      </c>
+      <c r="I8" s="2">
+        <f>A52/1000000</f>
+        <v>2.6343599999999998E-2</v>
+      </c>
+      <c r="J8">
+        <v>129867</v>
+      </c>
+      <c r="K8">
+        <f>J8*LOG(A8,2)*0.0000000262468</f>
+        <v>3.74945249316E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f>A67/1000000</f>
+        <v>2.1655199999999999E-2</v>
+      </c>
+      <c r="M8">
+        <v>106117</v>
+      </c>
+      <c r="N8">
+        <f>M8*LOG(A8,2)*0.0000000262468</f>
+        <v>3.0637548431599999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4096</v>
+      </c>
+      <c r="B9" s="2">
+        <f>A25/1000000</f>
+        <v>7.4577399999999988E-2</v>
+      </c>
+      <c r="C9">
+        <v>293764</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>9.2524379462399997E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <f>A39/1000000</f>
+        <v>0.17530679999999998</v>
+      </c>
+      <c r="F9">
+        <v>629938</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.19840628038079999</v>
+      </c>
+      <c r="H9">
+        <v>4096</v>
+      </c>
+      <c r="I9" s="2">
+        <f>A53/1000000</f>
+        <v>0.1074164</v>
+      </c>
+      <c r="J9">
+        <v>405929</v>
+      </c>
+      <c r="K9">
+        <f>J9*LOG(A9,2)*0.0000000262468</f>
+        <v>0.12785204732639999</v>
+      </c>
+      <c r="L9" s="2">
+        <f>A68/1000000</f>
+        <v>8.072760000000001E-2</v>
+      </c>
+      <c r="M9">
+        <v>312938</v>
+      </c>
+      <c r="N9">
+        <f>M9*LOG(A9,2)*0.0000000262468</f>
+        <v>9.8563453180799995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8192</v>
+      </c>
+      <c r="B10" s="2">
+        <f>A26/1000000</f>
+        <v>0.23262720000000001</v>
+      </c>
+      <c r="C10">
+        <v>851237</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.29044921479079999</v>
+      </c>
+      <c r="E10" s="2">
+        <f>A40/1000000</f>
+        <v>0.69751540000000001</v>
+      </c>
+      <c r="F10">
+        <v>2182371</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.74464331711639997</v>
+      </c>
+      <c r="H10">
+        <v>8192</v>
+      </c>
+      <c r="I10" s="2">
+        <f>A54/1000000</f>
+        <v>0.40643780000000002</v>
+      </c>
+      <c r="J10">
+        <v>1309708</v>
+      </c>
+      <c r="K10">
+        <f>J10*LOG(A10,2)*0.0000000262468</f>
+        <v>0.4468833711472</v>
+      </c>
+      <c r="L10" s="2">
+        <f>A69/1000000</f>
+        <v>0.25990160000000001</v>
+      </c>
+      <c r="M10">
+        <v>945328</v>
+      </c>
+      <c r="N10">
+        <f>M10*LOG(A10,2)*0.0000000262468</f>
+        <v>0.32255385435520001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16384</v>
+      </c>
+      <c r="B11" s="2">
+        <f>A27/1000000</f>
+        <v>0.68880540000000001</v>
+      </c>
+      <c r="C11">
+        <v>2301431</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.84567278839119997</v>
+      </c>
+      <c r="E11" s="2">
+        <f>A41/1000000</f>
+        <v>2.5632243999999997</v>
+      </c>
+      <c r="F11">
+        <v>7596986</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.7915520100271998</v>
+      </c>
+      <c r="H11">
+        <v>16384</v>
+      </c>
+      <c r="I11" s="2">
+        <f>A55/1000000</f>
+        <v>1.5266134</v>
+      </c>
+      <c r="J11">
+        <v>4302869</v>
+      </c>
+      <c r="K11">
+        <f>J11*LOG(A11,2)*0.0000000262468</f>
+        <v>1.5811115889687999</v>
+      </c>
+      <c r="L11" s="2">
+        <f>A70/1000000</f>
+        <v>0.89384619999999992</v>
+      </c>
+      <c r="M11">
+        <v>2912150</v>
+      </c>
+      <c r="N11">
+        <f>M11*LOG(A11,2)*0.0000000262468</f>
+        <v>1.0700846606799999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>32678</v>
+      </c>
+      <c r="B12" s="2">
+        <f>A28/1000000</f>
+        <v>2.1071127999999999</v>
+      </c>
+      <c r="C12">
+        <v>5353458</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.1071095828757449</v>
+      </c>
+      <c r="E12" s="2">
+        <f>A42/1000000</f>
+        <v>10.060614599999999</v>
+      </c>
+      <c r="F12">
+        <v>26549410</v>
+      </c>
+      <c r="G12">
+        <f>F12*LOG(A12,2)*0.0000000262468</f>
+        <v>10.449790813843524</v>
+      </c>
+      <c r="H12">
+        <v>32678</v>
+      </c>
+      <c r="I12" s="2">
+        <f>A56/1000000</f>
+        <v>5.3114222</v>
+      </c>
+      <c r="J12">
+        <v>14170888</v>
+      </c>
+      <c r="K12">
+        <f>J12*LOG(A12,2)*0.0000000262468</f>
+        <v>5.5776311129477243</v>
+      </c>
+      <c r="L12" s="2">
+        <f>A71/1000000</f>
+        <v>3.0001660000000001</v>
+      </c>
+      <c r="M12">
+        <v>9082067</v>
+      </c>
+      <c r="N12">
+        <f>M12*LOG(A12,2)*0.0000000262468</f>
+        <v>3.5746820854893353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>130.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1584.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5319.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19042.400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>74577.399999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>232627.20000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>688805.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2107112.7999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>224.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>743.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2829.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>172993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>175306.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>697515.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2563224.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10060614.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>220.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>659.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7484.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>26343.599999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>107416.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>406437.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1526613.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5311422.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>233.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2150.1999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6511.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>21655.200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>80727.600000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>259901.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>893846.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3000166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>